--- a/data/pca/factorExposure/factorExposure_2016-06-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01005870180792702</v>
+        <v>-0.01196734556650609</v>
       </c>
       <c r="C2">
-        <v>0.05274507719148839</v>
+        <v>0.04038034330265611</v>
       </c>
       <c r="D2">
-        <v>0.04166286209977767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06046443890763391</v>
+      </c>
+      <c r="E2">
+        <v>-0.08054997022115085</v>
+      </c>
+      <c r="F2">
+        <v>-0.06028614687839855</v>
+      </c>
+      <c r="G2">
+        <v>-0.04395477458675454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0394952463212733</v>
+        <v>-0.02367841541080241</v>
       </c>
       <c r="C3">
-        <v>0.1130783763341364</v>
+        <v>0.07131695919670379</v>
       </c>
       <c r="D3">
-        <v>0.0914629273925107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.077775446658272</v>
+      </c>
+      <c r="E3">
+        <v>-0.06596993025292545</v>
+      </c>
+      <c r="F3">
+        <v>0.02477447940674894</v>
+      </c>
+      <c r="G3">
+        <v>0.03572096540416123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05820499507081321</v>
+        <v>-0.05591634118800502</v>
       </c>
       <c r="C4">
-        <v>0.06226876091910764</v>
+        <v>0.06502099216367234</v>
       </c>
       <c r="D4">
-        <v>0.03405400920297078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05897668679942406</v>
+      </c>
+      <c r="E4">
+        <v>-0.08008659059234345</v>
+      </c>
+      <c r="F4">
+        <v>-0.07361117760643546</v>
+      </c>
+      <c r="G4">
+        <v>0.03588486871778319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.037681774528074</v>
+        <v>-0.03442137274209769</v>
       </c>
       <c r="C6">
-        <v>0.03886571044400092</v>
+        <v>0.03015881643782975</v>
       </c>
       <c r="D6">
-        <v>0.0308336117767253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06041055886828331</v>
+      </c>
+      <c r="E6">
+        <v>-0.0817973627651355</v>
+      </c>
+      <c r="F6">
+        <v>-0.04926261195389318</v>
+      </c>
+      <c r="G6">
+        <v>0.02182679134399225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0200546450965539</v>
+        <v>-0.01702608661266147</v>
       </c>
       <c r="C7">
-        <v>0.04528676647146661</v>
+        <v>0.03797576179605474</v>
       </c>
       <c r="D7">
-        <v>-0.003448077749461694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03765811038237373</v>
+      </c>
+      <c r="E7">
+        <v>-0.0577821081098201</v>
+      </c>
+      <c r="F7">
+        <v>-0.09388905132125369</v>
+      </c>
+      <c r="G7">
+        <v>0.009453556053660363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004551173598876565</v>
+        <v>-0.00258727389120864</v>
       </c>
       <c r="C8">
-        <v>0.03449581257288748</v>
+        <v>0.03127241459726622</v>
       </c>
       <c r="D8">
-        <v>0.02508285967919321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03308434258215404</v>
+      </c>
+      <c r="E8">
+        <v>-0.05524728989776895</v>
+      </c>
+      <c r="F8">
+        <v>-0.0309071676854871</v>
+      </c>
+      <c r="G8">
+        <v>0.006268138802236783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03212083285752619</v>
+        <v>-0.03563982951791211</v>
       </c>
       <c r="C9">
-        <v>0.04814133035560245</v>
+        <v>0.05145045094804213</v>
       </c>
       <c r="D9">
-        <v>0.01802418786520522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0427991337924987</v>
+      </c>
+      <c r="E9">
+        <v>-0.06837656551606047</v>
+      </c>
+      <c r="F9">
+        <v>-0.07977953121694825</v>
+      </c>
+      <c r="G9">
+        <v>0.02172600164129793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08384075271156152</v>
+        <v>-0.104130613164734</v>
       </c>
       <c r="C10">
-        <v>-0.188255872773617</v>
+        <v>-0.1936162422711286</v>
       </c>
       <c r="D10">
-        <v>-0.009007929957542809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.009377680631535336</v>
+      </c>
+      <c r="E10">
+        <v>-0.04415341432604167</v>
+      </c>
+      <c r="F10">
+        <v>-0.03330707041127346</v>
+      </c>
+      <c r="G10">
+        <v>0.01264380803559152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03879288277438975</v>
+        <v>-0.0349388065340662</v>
       </c>
       <c r="C11">
-        <v>0.05387777611331997</v>
+        <v>0.04915335527916757</v>
       </c>
       <c r="D11">
-        <v>0.0174352224963966</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03412454508715487</v>
+      </c>
+      <c r="E11">
+        <v>-0.02274539285087472</v>
+      </c>
+      <c r="F11">
+        <v>-0.06350581649705193</v>
+      </c>
+      <c r="G11">
+        <v>0.0169523276192292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04069094223384459</v>
+        <v>-0.03713454740845067</v>
       </c>
       <c r="C12">
-        <v>0.04875603257599882</v>
+        <v>0.04635524522113498</v>
       </c>
       <c r="D12">
-        <v>0.006437303232802774</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02772389276234549</v>
+      </c>
+      <c r="E12">
+        <v>-0.03111149433676102</v>
+      </c>
+      <c r="F12">
+        <v>-0.06396823261784715</v>
+      </c>
+      <c r="G12">
+        <v>0.01337284612690727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01078172386787014</v>
+        <v>-0.009838354176373913</v>
       </c>
       <c r="C13">
-        <v>0.05164858560176575</v>
+        <v>0.04129820507179162</v>
       </c>
       <c r="D13">
-        <v>0.01447092854553009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0498580888451771</v>
+      </c>
+      <c r="E13">
+        <v>-0.09279116351345437</v>
+      </c>
+      <c r="F13">
+        <v>-0.08691844116344691</v>
+      </c>
+      <c r="G13">
+        <v>0.01952976878195072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00618426564139335</v>
+        <v>-0.003737189712946182</v>
       </c>
       <c r="C14">
-        <v>0.04092789239452204</v>
+        <v>0.03327429197985794</v>
       </c>
       <c r="D14">
-        <v>-0.009569386987415794</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02491300638174462</v>
+      </c>
+      <c r="E14">
+        <v>-0.04596264016815436</v>
+      </c>
+      <c r="F14">
+        <v>-0.0881984509746577</v>
+      </c>
+      <c r="G14">
+        <v>-0.004237679095839763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0002796912059716532</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004897491133828133</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007130868862387243</v>
+      </c>
+      <c r="E15">
+        <v>-0.003622050218504003</v>
+      </c>
+      <c r="F15">
+        <v>-0.005781098835139757</v>
+      </c>
+      <c r="G15">
+        <v>0.0001000268946477678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03559606818575146</v>
+        <v>-0.03313825993525596</v>
       </c>
       <c r="C16">
-        <v>0.04856139377940731</v>
+        <v>0.04503000126882049</v>
       </c>
       <c r="D16">
-        <v>0.01190332555751438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02793801325119482</v>
+      </c>
+      <c r="E16">
+        <v>-0.03677956941072603</v>
+      </c>
+      <c r="F16">
+        <v>-0.06389594793612539</v>
+      </c>
+      <c r="G16">
+        <v>0.002160965619812772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01811006588467133</v>
+        <v>-0.01434469284653138</v>
       </c>
       <c r="C19">
-        <v>0.06556665844536719</v>
+        <v>0.04770166873024914</v>
       </c>
       <c r="D19">
-        <v>0.08357518324553927</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08778354943097111</v>
+      </c>
+      <c r="E19">
+        <v>-0.1046349570297845</v>
+      </c>
+      <c r="F19">
+        <v>-0.06172840169289945</v>
+      </c>
+      <c r="G19">
+        <v>-0.02764800831607897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0140568778792386</v>
+        <v>-0.0117677590348215</v>
       </c>
       <c r="C20">
-        <v>0.04770308955942872</v>
+        <v>0.03882206393035207</v>
       </c>
       <c r="D20">
-        <v>0.01272883024257267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03544240380701517</v>
+      </c>
+      <c r="E20">
+        <v>-0.07419687677858895</v>
+      </c>
+      <c r="F20">
+        <v>-0.068697904668029</v>
+      </c>
+      <c r="G20">
+        <v>0.00614037581547594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.008003263211193185</v>
+        <v>-0.007837308411895855</v>
       </c>
       <c r="C21">
-        <v>0.04977768561526554</v>
+        <v>0.04211569567639432</v>
       </c>
       <c r="D21">
-        <v>0.03725565569618611</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06365196376284973</v>
+      </c>
+      <c r="E21">
+        <v>-0.115267739370024</v>
+      </c>
+      <c r="F21">
+        <v>-0.1079594026777505</v>
+      </c>
+      <c r="G21">
+        <v>0.005976582060349856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0007440070710433278</v>
+        <v>-0.002468375168652209</v>
       </c>
       <c r="C22">
-        <v>0.0004743667368365854</v>
+        <v>0.02499768381393828</v>
       </c>
       <c r="D22">
-        <v>0.001397708447143172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04221622490143136</v>
+      </c>
+      <c r="E22">
+        <v>-0.03713245870491563</v>
+      </c>
+      <c r="F22">
+        <v>-0.009243208171839531</v>
+      </c>
+      <c r="G22">
+        <v>0.03744436321013987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0007495977984942766</v>
+        <v>-0.002539764251212442</v>
       </c>
       <c r="C23">
-        <v>0.0004742911372021128</v>
+        <v>0.02515462999393665</v>
       </c>
       <c r="D23">
-        <v>0.001404934630272334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04187835009096447</v>
+      </c>
+      <c r="E23">
+        <v>-0.03740194216860245</v>
+      </c>
+      <c r="F23">
+        <v>-0.009019648654185872</v>
+      </c>
+      <c r="G23">
+        <v>0.03764682530820262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03217015878737431</v>
+        <v>-0.03277280551388386</v>
       </c>
       <c r="C24">
-        <v>0.05065474652803704</v>
+        <v>0.05288710090985567</v>
       </c>
       <c r="D24">
-        <v>0.01225874999134721</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02816912690908954</v>
+      </c>
+      <c r="E24">
+        <v>-0.03799439789393173</v>
+      </c>
+      <c r="F24">
+        <v>-0.0703578029663024</v>
+      </c>
+      <c r="G24">
+        <v>0.009599419755347845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04555767612933709</v>
+        <v>-0.04248333772016126</v>
       </c>
       <c r="C25">
-        <v>0.06318860125945819</v>
+        <v>0.05746087124046893</v>
       </c>
       <c r="D25">
-        <v>0.004081469625493197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02723655310786294</v>
+      </c>
+      <c r="E25">
+        <v>-0.02970281131473888</v>
+      </c>
+      <c r="F25">
+        <v>-0.07358780084358701</v>
+      </c>
+      <c r="G25">
+        <v>0.02740424086478626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01421339456386031</v>
+        <v>-0.01401228966658406</v>
       </c>
       <c r="C26">
-        <v>0.01902140318033316</v>
+        <v>0.01765954390343377</v>
       </c>
       <c r="D26">
-        <v>-4.19039513313084e-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02384322759508171</v>
+      </c>
+      <c r="E26">
+        <v>-0.04645240600093323</v>
+      </c>
+      <c r="F26">
+        <v>-0.06345569436053658</v>
+      </c>
+      <c r="G26">
+        <v>-0.01359463298346468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.101181319660647</v>
+        <v>-0.1406427360094153</v>
       </c>
       <c r="C28">
-        <v>-0.2387458955920199</v>
+        <v>-0.2466351705248665</v>
       </c>
       <c r="D28">
-        <v>-0.01356051635116771</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02704679491191288</v>
+      </c>
+      <c r="E28">
+        <v>-0.05974108860061932</v>
+      </c>
+      <c r="F28">
+        <v>-0.05330306785910342</v>
+      </c>
+      <c r="G28">
+        <v>0.02217123716686078</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006509484589284323</v>
+        <v>-0.00526044917687154</v>
       </c>
       <c r="C29">
-        <v>0.03306239070229008</v>
+        <v>0.02949649222297981</v>
       </c>
       <c r="D29">
-        <v>-0.01383511866279678</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01880322497458542</v>
+      </c>
+      <c r="E29">
+        <v>-0.04611518736908302</v>
+      </c>
+      <c r="F29">
+        <v>-0.08213354010211177</v>
+      </c>
+      <c r="G29">
+        <v>0.009452726432337253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04201920219417652</v>
+        <v>-0.03864251035148126</v>
       </c>
       <c r="C30">
-        <v>0.05558848046298911</v>
+        <v>0.05768228323472971</v>
       </c>
       <c r="D30">
-        <v>0.07179799022869661</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1005624766808689</v>
+      </c>
+      <c r="E30">
+        <v>-0.06975639448887826</v>
+      </c>
+      <c r="F30">
+        <v>-0.07788862758699121</v>
+      </c>
+      <c r="G30">
+        <v>-0.0137942140479774</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05450339868438082</v>
+        <v>-0.05522448781085238</v>
       </c>
       <c r="C31">
-        <v>0.04619747452142095</v>
+        <v>0.06155235982533824</v>
       </c>
       <c r="D31">
-        <v>-0.02258581929195771</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006971423716871427</v>
+      </c>
+      <c r="E31">
+        <v>-0.06935853903941959</v>
+      </c>
+      <c r="F31">
+        <v>-0.06315437165676863</v>
+      </c>
+      <c r="G31">
+        <v>0.04678683855576396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002603540389145386</v>
+        <v>-0.004618818792109549</v>
       </c>
       <c r="C32">
-        <v>0.04051639213828905</v>
+        <v>0.03311588020470108</v>
       </c>
       <c r="D32">
-        <v>0.04873023637101487</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05632252362174948</v>
+      </c>
+      <c r="E32">
+        <v>-0.05410500417558735</v>
+      </c>
+      <c r="F32">
+        <v>-0.06411394055808806</v>
+      </c>
+      <c r="G32">
+        <v>-0.01248165684028605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0253178810801321</v>
+        <v>-0.02263444915836499</v>
       </c>
       <c r="C33">
-        <v>0.06240301907183211</v>
+        <v>0.05430820135728424</v>
       </c>
       <c r="D33">
-        <v>0.05155160123254984</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0797687469830743</v>
+      </c>
+      <c r="E33">
+        <v>-0.08511526559827169</v>
+      </c>
+      <c r="F33">
+        <v>-0.1086382957716481</v>
+      </c>
+      <c r="G33">
+        <v>0.02023937870008537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04410308052585867</v>
+        <v>-0.04025302382797632</v>
       </c>
       <c r="C34">
-        <v>0.06691679344940113</v>
+        <v>0.06480392403181123</v>
       </c>
       <c r="D34">
-        <v>0.01874443853792392</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03834610478950139</v>
+      </c>
+      <c r="E34">
+        <v>-0.01155251604181954</v>
+      </c>
+      <c r="F34">
+        <v>-0.07691385908429792</v>
+      </c>
+      <c r="G34">
+        <v>0.01277590372615297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01397267355549468</v>
+        <v>-0.01317829801772852</v>
       </c>
       <c r="C36">
-        <v>0.01653979728494625</v>
+        <v>0.01274000670641527</v>
       </c>
       <c r="D36">
-        <v>0.0005126137515805826</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02626964809770202</v>
+      </c>
+      <c r="E36">
+        <v>-0.0557250680464851</v>
+      </c>
+      <c r="F36">
+        <v>-0.06796268167484293</v>
+      </c>
+      <c r="G36">
+        <v>0.008975387385477705</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02785745061136006</v>
+        <v>-0.02218432295627215</v>
       </c>
       <c r="C38">
-        <v>0.02956893498665675</v>
+        <v>0.02245270310165025</v>
       </c>
       <c r="D38">
-        <v>-0.008774856940091277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02258957736401712</v>
+      </c>
+      <c r="E38">
+        <v>-0.04638178792702071</v>
+      </c>
+      <c r="F38">
+        <v>-0.05359865553292885</v>
+      </c>
+      <c r="G38">
+        <v>0.002912843704483792</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04179618923854944</v>
+        <v>-0.03765122402173417</v>
       </c>
       <c r="C39">
-        <v>0.06664172494432311</v>
+        <v>0.06441936454365019</v>
       </c>
       <c r="D39">
-        <v>0.02179562713370383</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05261793648354707</v>
+      </c>
+      <c r="E39">
+        <v>-0.04183656230437602</v>
+      </c>
+      <c r="F39">
+        <v>-0.08042979214264556</v>
+      </c>
+      <c r="G39">
+        <v>-0.01209310491066229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01173305933690662</v>
+        <v>-0.01237784630704899</v>
       </c>
       <c r="C40">
-        <v>0.05058014812127851</v>
+        <v>0.03677005865317666</v>
       </c>
       <c r="D40">
-        <v>0.01667770399492397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03324160462303036</v>
+      </c>
+      <c r="E40">
+        <v>-0.08172999749005534</v>
+      </c>
+      <c r="F40">
+        <v>-0.06362712538846339</v>
+      </c>
+      <c r="G40">
+        <v>0.03784711888619702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02100736646887346</v>
+        <v>-0.01872911194826901</v>
       </c>
       <c r="C41">
-        <v>0.01271629161203822</v>
+        <v>0.01039048175714698</v>
       </c>
       <c r="D41">
-        <v>0.002246662698945103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01698762894962476</v>
+      </c>
+      <c r="E41">
+        <v>-0.0548690878658638</v>
+      </c>
+      <c r="F41">
+        <v>-0.0580953610140373</v>
+      </c>
+      <c r="G41">
+        <v>0.002529734251411459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03708305866498372</v>
+        <v>-0.02835492504042912</v>
       </c>
       <c r="C43">
-        <v>0.03371601156722124</v>
+        <v>0.02480349675620575</v>
       </c>
       <c r="D43">
-        <v>0.03009527161123413</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04418326427952485</v>
+      </c>
+      <c r="E43">
+        <v>-0.06924727664440603</v>
+      </c>
+      <c r="F43">
+        <v>-0.06493452159731672</v>
+      </c>
+      <c r="G43">
+        <v>0.02029436720629699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01032504616852245</v>
+        <v>-0.0123312080708217</v>
       </c>
       <c r="C44">
-        <v>0.06633815844850953</v>
+        <v>0.04923476178453522</v>
       </c>
       <c r="D44">
-        <v>0.0115298227701184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03766898926425059</v>
+      </c>
+      <c r="E44">
+        <v>-0.08541304931949466</v>
+      </c>
+      <c r="F44">
+        <v>-0.06689686085243367</v>
+      </c>
+      <c r="G44">
+        <v>-0.007539662780783946</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.006599120956668418</v>
+        <v>-0.007884934257039023</v>
       </c>
       <c r="C46">
-        <v>0.03018104944172552</v>
+        <v>0.02950780138972342</v>
       </c>
       <c r="D46">
-        <v>-0.01541385938576559</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01345787069125071</v>
+      </c>
+      <c r="E46">
+        <v>-0.05566480344491088</v>
+      </c>
+      <c r="F46">
+        <v>-0.09626409134104653</v>
+      </c>
+      <c r="G46">
+        <v>0.002850401246789689</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08133242509134199</v>
+        <v>-0.08658530898598522</v>
       </c>
       <c r="C47">
-        <v>0.07406735281266282</v>
+        <v>0.08314548717650684</v>
       </c>
       <c r="D47">
-        <v>-0.02389440438732778</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01400986073639859</v>
+      </c>
+      <c r="E47">
+        <v>-0.07177793088316378</v>
+      </c>
+      <c r="F47">
+        <v>-0.06811036212244612</v>
+      </c>
+      <c r="G47">
+        <v>0.05188717304481109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01728552974177218</v>
+        <v>-0.01537161565034608</v>
       </c>
       <c r="C48">
-        <v>0.0161694120459011</v>
+        <v>0.01687654943790351</v>
       </c>
       <c r="D48">
-        <v>-0.01499688007993799</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01461814746163386</v>
+      </c>
+      <c r="E48">
+        <v>-0.06638737367482754</v>
+      </c>
+      <c r="F48">
+        <v>-0.08509424585569547</v>
+      </c>
+      <c r="G48">
+        <v>0.008533089982961629</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07827829905411077</v>
+        <v>-0.0698173862162563</v>
       </c>
       <c r="C50">
-        <v>0.08211680042344711</v>
+        <v>0.07595865603986506</v>
       </c>
       <c r="D50">
-        <v>-0.02413296612360798</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0009888370024260422</v>
+      </c>
+      <c r="E50">
+        <v>-0.07612005275410669</v>
+      </c>
+      <c r="F50">
+        <v>-0.04824149555916143</v>
+      </c>
+      <c r="G50">
+        <v>0.06897119546263412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01339459073776137</v>
+        <v>-0.009637526009085353</v>
       </c>
       <c r="C51">
-        <v>0.05096145347753992</v>
+        <v>0.03242086690770761</v>
       </c>
       <c r="D51">
-        <v>0.02886669773681758</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04897328427830942</v>
+      </c>
+      <c r="E51">
+        <v>-0.04356133349321645</v>
+      </c>
+      <c r="F51">
+        <v>-0.0709646973833855</v>
+      </c>
+      <c r="G51">
+        <v>-0.01982962614155061</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.0785930078977686</v>
+        <v>-0.09205319764075953</v>
       </c>
       <c r="C53">
-        <v>0.08061008671930149</v>
+        <v>0.08953501198470992</v>
       </c>
       <c r="D53">
-        <v>-0.03956384438644642</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04065361199906453</v>
+      </c>
+      <c r="E53">
+        <v>-0.06882639397961578</v>
+      </c>
+      <c r="F53">
+        <v>-0.07764612003560889</v>
+      </c>
+      <c r="G53">
+        <v>0.06460687956474565</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0302346218754662</v>
+        <v>-0.02714667406398396</v>
       </c>
       <c r="C54">
-        <v>0.03221872092644789</v>
+        <v>0.02916973332558193</v>
       </c>
       <c r="D54">
-        <v>0.005396338760367677</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03088687947010111</v>
+      </c>
+      <c r="E54">
+        <v>-0.05338161010995434</v>
+      </c>
+      <c r="F54">
+        <v>-0.09262287170450383</v>
+      </c>
+      <c r="G54">
+        <v>0.01076605095843362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07274729499466531</v>
+        <v>-0.08398810750685154</v>
       </c>
       <c r="C55">
-        <v>0.06165859822142614</v>
+        <v>0.07268367477182723</v>
       </c>
       <c r="D55">
-        <v>-0.04835468979959723</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04715408348444072</v>
+      </c>
+      <c r="E55">
+        <v>-0.05068920037513217</v>
+      </c>
+      <c r="F55">
+        <v>-0.05387236991000523</v>
+      </c>
+      <c r="G55">
+        <v>0.05344917437807755</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1419987259999982</v>
+        <v>-0.1456233411491032</v>
       </c>
       <c r="C56">
-        <v>0.1011425617504786</v>
+        <v>0.1108575389403294</v>
       </c>
       <c r="D56">
-        <v>-0.03720734830388321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04303571353187977</v>
+      </c>
+      <c r="E56">
+        <v>-0.05256382644437222</v>
+      </c>
+      <c r="F56">
+        <v>-0.03852244100102531</v>
+      </c>
+      <c r="G56">
+        <v>0.0595796418038446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.001869905773953128</v>
+        <v>-0.001452501546202881</v>
       </c>
       <c r="C57">
-        <v>-0.004419097958338693</v>
+        <v>-0.002639531895487912</v>
       </c>
       <c r="D57">
-        <v>0.004786736772651348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.003531991826513913</v>
+      </c>
+      <c r="E57">
+        <v>-0.0009412147377035385</v>
+      </c>
+      <c r="F57">
+        <v>-0.001373505608411459</v>
+      </c>
+      <c r="G57">
+        <v>0.001433225086490579</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04087453681616851</v>
+        <v>-0.02475755542419657</v>
       </c>
       <c r="C58">
-        <v>0.01782066044380721</v>
+        <v>0.01906539017451418</v>
       </c>
       <c r="D58">
-        <v>0.6380157105940581</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3871085035328838</v>
+      </c>
+      <c r="E58">
+        <v>-0.6366613353708325</v>
+      </c>
+      <c r="F58">
+        <v>0.5835731970381312</v>
+      </c>
+      <c r="G58">
+        <v>-0.1054495589466285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1377375717017734</v>
+        <v>-0.1470944569261191</v>
       </c>
       <c r="C59">
-        <v>-0.1940413104227552</v>
+        <v>-0.1848903600169437</v>
       </c>
       <c r="D59">
-        <v>0.01636975175038301</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02412952473162717</v>
+      </c>
+      <c r="E59">
+        <v>-0.02599089849266231</v>
+      </c>
+      <c r="F59">
+        <v>-0.01939765735761462</v>
+      </c>
+      <c r="G59">
+        <v>-0.03112863362052471</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3077252294192971</v>
+        <v>-0.2803541586971457</v>
       </c>
       <c r="C60">
-        <v>0.1066010685419031</v>
+        <v>0.1036100992869005</v>
       </c>
       <c r="D60">
-        <v>0.171575302155675</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2470369053098453</v>
+      </c>
+      <c r="E60">
+        <v>0.2589500823340851</v>
+      </c>
+      <c r="F60">
+        <v>0.07611771387166663</v>
+      </c>
+      <c r="G60">
+        <v>0.04521735988887001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03985220524254079</v>
+        <v>-0.03899699624729798</v>
       </c>
       <c r="C61">
-        <v>0.06407359498342274</v>
+        <v>0.06038587337300144</v>
       </c>
       <c r="D61">
-        <v>0.01752518574961666</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04454586416598541</v>
+      </c>
+      <c r="E61">
+        <v>-0.04619113851581115</v>
+      </c>
+      <c r="F61">
+        <v>-0.07099153410178936</v>
+      </c>
+      <c r="G61">
+        <v>0.01277700068137743</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01436903654378008</v>
+        <v>-0.0140497698399646</v>
       </c>
       <c r="C63">
-        <v>0.03440356829124974</v>
+        <v>0.03189370241555471</v>
       </c>
       <c r="D63">
-        <v>-0.009264282290042202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02010064085187309</v>
+      </c>
+      <c r="E63">
+        <v>-0.05754603040161373</v>
+      </c>
+      <c r="F63">
+        <v>-0.06319596082699871</v>
+      </c>
+      <c r="G63">
+        <v>0.02809134970979638</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04746943540489727</v>
+        <v>-0.05485741428732601</v>
       </c>
       <c r="C64">
-        <v>0.04809417809696261</v>
+        <v>0.0571837358261126</v>
       </c>
       <c r="D64">
-        <v>0.007446340450509281</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01046565034975088</v>
+      </c>
+      <c r="E64">
+        <v>-0.04016446329828772</v>
+      </c>
+      <c r="F64">
+        <v>-0.08256303744720572</v>
+      </c>
+      <c r="G64">
+        <v>0.01245085547034297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08323995802009918</v>
+        <v>-0.06787067271162689</v>
       </c>
       <c r="C65">
-        <v>0.03382995287183712</v>
+        <v>0.03120249808944999</v>
       </c>
       <c r="D65">
-        <v>0.05129728446672605</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08233525740939192</v>
+      </c>
+      <c r="E65">
+        <v>-0.04424523275315395</v>
+      </c>
+      <c r="F65">
+        <v>0.0008705225136858799</v>
+      </c>
+      <c r="G65">
+        <v>0.001145918857504276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05749621243232125</v>
+        <v>-0.04905452063858594</v>
       </c>
       <c r="C66">
-        <v>0.09276332055004008</v>
+        <v>0.08359667949035238</v>
       </c>
       <c r="D66">
-        <v>0.04373690888252406</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07752335122995983</v>
+      </c>
+      <c r="E66">
+        <v>-0.04914946150567703</v>
+      </c>
+      <c r="F66">
+        <v>-0.08276486828185904</v>
+      </c>
+      <c r="G66">
+        <v>0.004481502275633327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04990365952263138</v>
+        <v>-0.04417983552668739</v>
       </c>
       <c r="C67">
-        <v>0.03190843085535226</v>
+        <v>0.02788400156620191</v>
       </c>
       <c r="D67">
-        <v>-0.01159553182127515</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.00867275477324805</v>
+      </c>
+      <c r="E67">
+        <v>-0.02478226798408795</v>
+      </c>
+      <c r="F67">
+        <v>-0.04512509936287955</v>
+      </c>
+      <c r="G67">
+        <v>0.009946486403231756</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.137733819718895</v>
+        <v>-0.1565439037909488</v>
       </c>
       <c r="C68">
-        <v>-0.2772908811756177</v>
+        <v>-0.243630149306194</v>
       </c>
       <c r="D68">
-        <v>-0.01891371048101422</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02119944999694614</v>
+      </c>
+      <c r="E68">
+        <v>-0.0415157502337315</v>
+      </c>
+      <c r="F68">
+        <v>-0.01183619449036942</v>
+      </c>
+      <c r="G68">
+        <v>0.009652378330118729</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08814775801441509</v>
+        <v>-0.0858134248679804</v>
       </c>
       <c r="C69">
-        <v>0.07269730714742018</v>
+        <v>0.09001148287263862</v>
       </c>
       <c r="D69">
-        <v>-0.03279846805463228</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.004714664759579142</v>
+      </c>
+      <c r="E69">
+        <v>-0.05636812292572004</v>
+      </c>
+      <c r="F69">
+        <v>-0.08682624603024079</v>
+      </c>
+      <c r="G69">
+        <v>0.03071270679462012</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1243646871075971</v>
+        <v>-0.1468821956021445</v>
       </c>
       <c r="C71">
-        <v>-0.2462467007877408</v>
+        <v>-0.2341312861800819</v>
       </c>
       <c r="D71">
-        <v>0.01429974632436077</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003769289027511374</v>
+      </c>
+      <c r="E71">
+        <v>-0.06635873318192248</v>
+      </c>
+      <c r="F71">
+        <v>-0.04769700979726091</v>
+      </c>
+      <c r="G71">
+        <v>0.03882119785953832</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08908682426258585</v>
+        <v>-0.09809787900019687</v>
       </c>
       <c r="C72">
-        <v>0.05918392746006216</v>
+        <v>0.05939175844021563</v>
       </c>
       <c r="D72">
-        <v>0.01241987479505839</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03358636549920789</v>
+      </c>
+      <c r="E72">
+        <v>-0.02556645362569132</v>
+      </c>
+      <c r="F72">
+        <v>-0.0655061551473675</v>
+      </c>
+      <c r="G72">
+        <v>0.03500032212814518</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4030505514559526</v>
+        <v>-0.3430733500369411</v>
       </c>
       <c r="C73">
-        <v>0.05613961646675771</v>
+        <v>0.070782448380813</v>
       </c>
       <c r="D73">
-        <v>0.398571815172774</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4905554315441197</v>
+      </c>
+      <c r="E73">
+        <v>0.4644927656357979</v>
+      </c>
+      <c r="F73">
+        <v>0.2188305401885598</v>
+      </c>
+      <c r="G73">
+        <v>0.1046772606109291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1019470605631172</v>
+        <v>-0.1079203253786021</v>
       </c>
       <c r="C74">
-        <v>0.09778191317359539</v>
+        <v>0.09795951753191988</v>
       </c>
       <c r="D74">
-        <v>-0.02011273349567013</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03080729773036458</v>
+      </c>
+      <c r="E74">
+        <v>-0.06827602750794251</v>
+      </c>
+      <c r="F74">
+        <v>-0.03721756945785176</v>
+      </c>
+      <c r="G74">
+        <v>0.07258870478707079</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.25054339144294</v>
+        <v>-0.2554296405763954</v>
       </c>
       <c r="C75">
-        <v>0.1125969294549216</v>
+        <v>0.1362862555943923</v>
       </c>
       <c r="D75">
-        <v>-0.08975622000546371</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1256784728332462</v>
+      </c>
+      <c r="E75">
+        <v>-0.06298736455548516</v>
+      </c>
+      <c r="F75">
+        <v>-0.01643430942773826</v>
+      </c>
+      <c r="G75">
+        <v>0.07808322487121923</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1090487206574741</v>
+        <v>-0.1242482218140866</v>
       </c>
       <c r="C76">
-        <v>0.09070233586008219</v>
+        <v>0.09977269352016307</v>
       </c>
       <c r="D76">
-        <v>-0.0514467665083314</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06070311025511139</v>
+      </c>
+      <c r="E76">
+        <v>-0.07902989284000894</v>
+      </c>
+      <c r="F76">
+        <v>-0.05948233656484934</v>
+      </c>
+      <c r="G76">
+        <v>0.05840190358775976</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07501745303070584</v>
+        <v>-0.05906975102076524</v>
       </c>
       <c r="C77">
-        <v>0.05922568513144354</v>
+        <v>0.07018640725907697</v>
       </c>
       <c r="D77">
-        <v>0.05165680392866735</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06250797592405397</v>
+      </c>
+      <c r="E77">
+        <v>-0.09556774444113791</v>
+      </c>
+      <c r="F77">
+        <v>-0.1084197588750035</v>
+      </c>
+      <c r="G77">
+        <v>-0.1433472446814344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04558921182471286</v>
+        <v>-0.04213208893378943</v>
       </c>
       <c r="C78">
-        <v>0.05196503496910494</v>
+        <v>0.05772437601351658</v>
       </c>
       <c r="D78">
-        <v>0.02768564220395598</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06330585170687028</v>
+      </c>
+      <c r="E78">
+        <v>-0.05331160407450049</v>
+      </c>
+      <c r="F78">
+        <v>-0.08280648304461748</v>
+      </c>
+      <c r="G78">
+        <v>0.00852792818396248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02774901105625274</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04532311822906845</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06052409059953916</v>
+      </c>
+      <c r="E79">
+        <v>-0.06640151396435179</v>
+      </c>
+      <c r="F79">
+        <v>-0.02953728754322101</v>
+      </c>
+      <c r="G79">
+        <v>0.08006726542041631</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03961712207744413</v>
+        <v>-0.03093571293274529</v>
       </c>
       <c r="C80">
-        <v>0.05062962338632411</v>
+        <v>0.05067450160047493</v>
       </c>
       <c r="D80">
-        <v>0.02587286820841339</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0386446282902613</v>
+      </c>
+      <c r="E80">
+        <v>-0.01657127058962765</v>
+      </c>
+      <c r="F80">
+        <v>-0.03251493222173544</v>
+      </c>
+      <c r="G80">
+        <v>-0.04503922460104975</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.138378174806174</v>
+        <v>-0.1382751969003045</v>
       </c>
       <c r="C81">
-        <v>0.08178026823861068</v>
+        <v>0.09721385304099342</v>
       </c>
       <c r="D81">
-        <v>-0.0772080556377423</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1046041874094744</v>
+      </c>
+      <c r="E81">
+        <v>-0.08070938238050433</v>
+      </c>
+      <c r="F81">
+        <v>-0.005717696041893006</v>
+      </c>
+      <c r="G81">
+        <v>0.05336002200863275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1652852502577765</v>
+        <v>-0.2054461227836028</v>
       </c>
       <c r="C82">
-        <v>0.09479581639759151</v>
+        <v>0.1572017795664948</v>
       </c>
       <c r="D82">
-        <v>-0.1447118820630064</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2152246567368518</v>
+      </c>
+      <c r="E82">
+        <v>-0.007139424304596072</v>
+      </c>
+      <c r="F82">
+        <v>-0.1073283622065882</v>
+      </c>
+      <c r="G82">
+        <v>0.0539075983299484</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03704121155613483</v>
+        <v>-0.02602405726631297</v>
       </c>
       <c r="C83">
-        <v>0.02976615354825118</v>
+        <v>0.04231396343868254</v>
       </c>
       <c r="D83">
-        <v>0.03470944534848387</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03247749753072122</v>
+      </c>
+      <c r="E83">
+        <v>-0.02363700583792337</v>
+      </c>
+      <c r="F83">
+        <v>-0.04159914239043597</v>
+      </c>
+      <c r="G83">
+        <v>-0.02096197720851669</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002218470938242657</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0008215814369310866</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001207413242111433</v>
+      </c>
+      <c r="E84">
+        <v>-0.0006703433263002497</v>
+      </c>
+      <c r="F84">
+        <v>-0.0009039835809656444</v>
+      </c>
+      <c r="G84">
+        <v>-0.0003084701862535944</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2165162262434727</v>
+        <v>-0.2008249035424725</v>
       </c>
       <c r="C85">
-        <v>0.1088491509453414</v>
+        <v>0.1198900801280279</v>
       </c>
       <c r="D85">
-        <v>-0.1180574983379634</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09770315355175532</v>
+      </c>
+      <c r="E85">
+        <v>0.005876134707059536</v>
+      </c>
+      <c r="F85">
+        <v>0.01175100671936033</v>
+      </c>
+      <c r="G85">
+        <v>0.1365033918267221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006519381342478424</v>
+        <v>-0.008662858484242909</v>
       </c>
       <c r="C86">
-        <v>0.03084876630357466</v>
+        <v>0.02179457065342382</v>
       </c>
       <c r="D86">
-        <v>0.03290871564519635</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05394940532131088</v>
+      </c>
+      <c r="E86">
+        <v>-0.06892983353762829</v>
+      </c>
+      <c r="F86">
+        <v>-0.1228795637275228</v>
+      </c>
+      <c r="G86">
+        <v>-0.008339871651296332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0227945772673544</v>
+        <v>-0.02167767356230432</v>
       </c>
       <c r="C87">
-        <v>0.006739354250262477</v>
+        <v>0.01502498401295057</v>
       </c>
       <c r="D87">
-        <v>0.08352709269702419</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08404835343054191</v>
+      </c>
+      <c r="E87">
+        <v>-0.1198882641213743</v>
+      </c>
+      <c r="F87">
+        <v>-0.06059308754448608</v>
+      </c>
+      <c r="G87">
+        <v>-0.04396724193732235</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1031690415920399</v>
+        <v>-0.09113090109919141</v>
       </c>
       <c r="C88">
-        <v>0.07403346177565476</v>
+        <v>0.06360306239320659</v>
       </c>
       <c r="D88">
-        <v>-0.02252724409778816</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.005387271840431468</v>
+      </c>
+      <c r="E88">
+        <v>-0.04786898310346858</v>
+      </c>
+      <c r="F88">
+        <v>-0.06713060090294584</v>
+      </c>
+      <c r="G88">
+        <v>-0.02238951504041177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1977002309876275</v>
+        <v>-0.226959858917196</v>
       </c>
       <c r="C89">
-        <v>-0.3724732313948473</v>
+        <v>-0.3776025118725279</v>
       </c>
       <c r="D89">
-        <v>-0.03261327139476033</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02331805472802891</v>
+      </c>
+      <c r="E89">
+        <v>-0.06553152324830355</v>
+      </c>
+      <c r="F89">
+        <v>-0.07537435274538071</v>
+      </c>
+      <c r="G89">
+        <v>-0.06313713166343601</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1870616826606404</v>
+        <v>-0.2052102664937435</v>
       </c>
       <c r="C90">
-        <v>-0.3292561037781192</v>
+        <v>-0.308566489226382</v>
       </c>
       <c r="D90">
-        <v>-0.03443822572101305</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02430726727530793</v>
+      </c>
+      <c r="E90">
+        <v>-0.07166033992410915</v>
+      </c>
+      <c r="F90">
+        <v>-0.03466127051773742</v>
+      </c>
+      <c r="G90">
+        <v>-0.01495654692505351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.185850374311498</v>
+        <v>-0.1838954255064786</v>
       </c>
       <c r="C91">
-        <v>0.1320116003177955</v>
+        <v>0.1465490301163193</v>
       </c>
       <c r="D91">
-        <v>-0.08710036533253508</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1043426687647232</v>
+      </c>
+      <c r="E91">
+        <v>-0.06244998440229366</v>
+      </c>
+      <c r="F91">
+        <v>-0.0309792497397995</v>
+      </c>
+      <c r="G91">
+        <v>0.06048854838474988</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1704394459859711</v>
+        <v>-0.1850072253982193</v>
       </c>
       <c r="C92">
-        <v>-0.2770981447015679</v>
+        <v>-0.2834262552819434</v>
       </c>
       <c r="D92">
-        <v>-0.01556153322826363</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02053547121357923</v>
+      </c>
+      <c r="E92">
+        <v>-0.07318988626965918</v>
+      </c>
+      <c r="F92">
+        <v>-0.08158703628539971</v>
+      </c>
+      <c r="G92">
+        <v>-0.008040407019081054</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2107792533086702</v>
+        <v>-0.2279170259949682</v>
       </c>
       <c r="C93">
-        <v>-0.3305542883396652</v>
+        <v>-0.3145488457468448</v>
       </c>
       <c r="D93">
-        <v>-0.03264295189385109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01765307395225803</v>
+      </c>
+      <c r="E93">
+        <v>-0.04565732872599211</v>
+      </c>
+      <c r="F93">
+        <v>-0.03435759152290723</v>
+      </c>
+      <c r="G93">
+        <v>0.02914500777689298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3431833842586556</v>
+        <v>-0.3451335961093712</v>
       </c>
       <c r="C94">
-        <v>0.1744717692851082</v>
+        <v>0.2013107195684596</v>
       </c>
       <c r="D94">
-        <v>-0.48326073313854</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.5003675480816476</v>
+      </c>
+      <c r="E94">
+        <v>0.0120292504074534</v>
+      </c>
+      <c r="F94">
+        <v>0.4455988376761401</v>
+      </c>
+      <c r="G94">
+        <v>-0.3467939060712163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1091876240779631</v>
+        <v>-0.08178749882505558</v>
       </c>
       <c r="C95">
-        <v>0.07504397243394102</v>
+        <v>0.06403193651264787</v>
       </c>
       <c r="D95">
-        <v>0.139641246159102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1704944549352508</v>
+      </c>
+      <c r="E95">
+        <v>0.1024568084250361</v>
+      </c>
+      <c r="F95">
+        <v>-0.2630418866972785</v>
+      </c>
+      <c r="G95">
+        <v>-0.851200694706849</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1924016437915794</v>
+        <v>-0.1857732603993309</v>
       </c>
       <c r="C98">
-        <v>0.02026943143627163</v>
+        <v>0.04166608853562636</v>
       </c>
       <c r="D98">
-        <v>0.1509545782873274</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1973605804369934</v>
+      </c>
+      <c r="E98">
+        <v>0.1421178901344891</v>
+      </c>
+      <c r="F98">
+        <v>0.03015080869448839</v>
+      </c>
+      <c r="G98">
+        <v>0.09474941857733679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006472056806447459</v>
+        <v>-0.005321145752500461</v>
       </c>
       <c r="C101">
-        <v>0.03306810139103835</v>
+        <v>0.02922708483016496</v>
       </c>
       <c r="D101">
-        <v>-0.01452969010748204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01819256697394302</v>
+      </c>
+      <c r="E101">
+        <v>-0.04670632466078797</v>
+      </c>
+      <c r="F101">
+        <v>-0.08179419157731295</v>
+      </c>
+      <c r="G101">
+        <v>0.008338699724852426</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1206065681349224</v>
+        <v>-0.1233503980063238</v>
       </c>
       <c r="C102">
-        <v>0.07638369206049289</v>
+        <v>0.1030360425297539</v>
       </c>
       <c r="D102">
-        <v>-0.02458934767268694</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04015842073478904</v>
+      </c>
+      <c r="E102">
+        <v>0.001483029954571659</v>
+      </c>
+      <c r="F102">
+        <v>-0.04724235088276234</v>
+      </c>
+      <c r="G102">
+        <v>0.01911912737257543</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
